--- a/AgOpenGPS/pgn.xlsx
+++ b/AgOpenGPS/pgn.xlsx
@@ -96,9 +96,6 @@
     <t xml:space="preserve">0,1 </t>
   </si>
   <si>
-    <t>AgOpenGPS PGN Codes</t>
-  </si>
-  <si>
     <t>IMU</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>pwm drive to motor</t>
+  </si>
+  <si>
+    <t>AgOpenGPS PGN Codes for Ethernet</t>
   </si>
 </sst>
 </file>
@@ -437,6 +437,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,15 +455,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -466,9 +469,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -773,8 +773,8 @@
   </sheetPr>
   <dimension ref="A1:CE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -789,28 +789,28 @@
   <sheetData>
     <row r="1" spans="1:83">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:83">
       <c r="F2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:83">
       <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:83">
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>25</v>
@@ -843,10 +843,10 @@
     <row r="5" spans="1:83" ht="24" customHeight="1"/>
     <row r="6" spans="1:83" ht="38.25" customHeight="1">
       <c r="A6" s="29"/>
-      <c r="B6" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="35"/>
+      <c r="B6" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="38"/>
     </row>
     <row r="7" spans="1:83" s="9" customFormat="1" ht="46.5" customHeight="1">
       <c r="A7" s="29"/>
@@ -858,21 +858,21 @@
         <v>7</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="41" t="s">
+      <c r="H7" s="43"/>
+      <c r="I7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="3"/>
@@ -950,10 +950,10 @@
     <row r="8" spans="1:83" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="30"/>
       <c r="D8" s="1"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
@@ -1039,22 +1039,22 @@
         <v>6</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>3</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>8</v>
@@ -1307,23 +1307,23 @@
       <c r="D13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="38" t="s">
+      <c r="F13" s="35"/>
+      <c r="G13" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="41"/>
+      <c r="I13" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="38"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
@@ -1423,10 +1423,10 @@
     </row>
     <row r="17" spans="1:83" ht="36.75" customHeight="1">
       <c r="A17" s="29"/>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="33"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1517,16 +1517,16 @@
         <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="H18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1799,10 +1799,10 @@
     <row r="24" spans="1:83" ht="24" customHeight="1"/>
     <row r="25" spans="1:83" ht="37.5" customHeight="1">
       <c r="A25" s="29"/>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="36"/>
+      <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:83">
       <c r="A26" s="29"/>
@@ -1834,10 +1834,10 @@
       <c r="D28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="34"/>
+      <c r="E28" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="37"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
@@ -1849,8 +1849,8 @@
       <c r="A29" s="29"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
     </row>
     <row r="30" spans="1:83" ht="15" customHeight="1">
       <c r="A30" s="29"/>
@@ -1882,19 +1882,19 @@
     </row>
     <row r="33" spans="1:12" ht="38.25" customHeight="1">
       <c r="A33" s="29"/>
-      <c r="B33" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="36"/>
+      <c r="B33" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="33"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="29"/>
       <c r="B34" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
@@ -1911,22 +1911,22 @@
     <row r="36" spans="1:12" ht="22.5" customHeight="1">
       <c r="A36" s="29"/>
       <c r="B36" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="35"/>
+      <c r="I36" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J36" s="38"/>
+      <c r="J36" s="35"/>
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
     </row>
@@ -1947,19 +1947,19 @@
     <row r="39" spans="1:12" ht="24" customHeight="1"/>
     <row r="40" spans="1:12" ht="41.25" customHeight="1">
       <c r="A40" s="29"/>
-      <c r="B40" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="36"/>
+      <c r="B40" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="33"/>
     </row>
     <row r="41" spans="1:12" ht="24.75" customHeight="1">
       <c r="A41" s="29"/>
       <c r="B41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
@@ -1987,11 +1987,11 @@
     <row r="44" spans="1:12" ht="22.5" customHeight="1">
       <c r="A44" s="29"/>
       <c r="B44" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
@@ -2005,11 +2005,11 @@
     <row r="45" spans="1:12" ht="22.5" customHeight="1">
       <c r="A45" s="29"/>
       <c r="B45" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
@@ -2044,11 +2044,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B17:C17"/>
@@ -2060,6 +2055,11 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="landscape" r:id="rId1"/>
